--- a/data/total_svf_gvi_bvi_250618.xlsx
+++ b/data/total_svf_gvi_bvi_250618.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsj54\OneDrive\Desktop\AIPU_MAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025_연구2_250518\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517C236-548F-41FF-B83A-875D0BD0EE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F83263-5DAC-44B7-959A-B6E93B5FA1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1935" windowWidth="23040" windowHeight="12150" activeTab="3" xr2:uid="{2E073FA9-0D60-4056-AABC-99E143880954}"/>
+    <workbookView xWindow="15270" yWindow="1560" windowWidth="23040" windowHeight="12150" activeTab="3" xr2:uid="{2E073FA9-0D60-4056-AABC-99E143880954}"/>
   </bookViews>
   <sheets>
     <sheet name="최종값 (2)" sheetId="3" r:id="rId1"/>
@@ -389,11 +389,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lon</t>
+    <t>Lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,17 +1015,17 @@
       <selection sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
@@ -1616,16 +1616,16 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -2458,14 +2458,14 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E16" s="5"/>
     </row>
   </sheetData>
@@ -2828,18 +2828,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="2"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.59765625" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>33</v>
       </c>
